--- a/biology/Zoologie/Heliconius_hecalesia/Heliconius_hecalesia.xlsx
+++ b/biology/Zoologie/Heliconius_hecalesia/Heliconius_hecalesia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius hecalesia est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,48 +523,121 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius hecalesia a été décrit par William Chapman Hewitson en 1854[1].
-Sous-espèces
-Heliconius hecalesia hecalesia Hewitson, 1853; présent en Colombie
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hecalesia a été décrit par William Chapman Hewitson en 1854.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Heliconius hecalesia hecalesia Hewitson, 1853; présent en Colombie
 Heliconius hecalesia eximus Stichel, 1923; présent en Colombie.
 Heliconius hecalesia formosus Bates, 1863; présent au Costa Rica, au Nicaragua, à Panama.
 Heliconius hecalesia gynaesia Hewitson, 1875; présent
 Heliconius hecalesia longarena Hewitson, 1875; présent en Colombie.
 Heliconius hecalesia octavia Bates, 1866; présent au Mexique et Guatemala.
-Heliconius hecalesia romeroi Brown &amp; Fernández, 1985; présent au Venezuela[1].
-Nom vernaculaire
-Heliconius hecalesia se nomme Five-spotted Longwing en anglais[2].
+Heliconius hecalesia romeroi Brown &amp; Fernández, 1985; présent au Venezuela.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hecalesia se nomme Five-spotted Longwing en anglais.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Heliconius_hecalesia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_hecalesia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand au corps fin et aux longues ailes antérieures allongées et arrondies. 
 Le dessus des ailes antérieure est de couleur marron foncé orné d'une ligne submarginale de taches ovales blanches et d'autres dans l'aire postdiscale,les ailes postérieures sont orange bordées de marron le long du bord externe et de l'apex orné de taches ovales blanches.
@@ -561,98 +646,142 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Heliconius_hecalesia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_hecalesia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Passifloraceae, Passiflora biflora et Passiflora lancearea pour Heliconius hecalesia formosus.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Passifloraceae, Passiflora biflora et Passiflora lancearea pour Heliconius hecalesia formosus.
 Sur les autres projets Wikimedia :
 Heliconius hecalesia, sur Wikimedia CommonsHeliconius hecalesia, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_hecalesia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_hecalesia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius hecalesia est présent au Guatemala, au Costa Rica, au Nicaragua, à Panama, en Colombie, au Venezuela et  en Équateur[1],[3],[2].
-Biotope
-Heliconius hecalesia réside jusqu'à une altitude de 1 700 m, dans la canopée de la forêt[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hecalesia est présent au Guatemala, au Costa Rica, au Nicaragua, à Panama, en Colombie, au Venezuela et  en Équateur.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Heliconius_hecalesia</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_hecalesia</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius hecalesia réside jusqu'à une altitude de 1 700 m, dans la canopée de la forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_hecalesia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
